--- a/Auswertung/Szenarien/Baseline2.xlsx
+++ b/Auswertung/Szenarien/Baseline2.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\Studium\Auswertung\Szenarien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Studium\Auswertung\Szenarien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C317BD-FE41-4F40-8494-E3D6D81675A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1565DECE-8569-46B4-B856-ACE7D695008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="6890" windowWidth="12800" windowHeight="6910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Das  Laufen in der VR hat sich für Sie sehr natürlich angefühlt.</t>
   </si>
@@ -37,14 +46,61 @@
   </si>
   <si>
     <t>Das Bewusstsein über die physische Umgebung hat Sie in Ihrer Bewegungsfreiheit beeinflusst.</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Spalte2</t>
+  </si>
+  <si>
+    <t>Spalte3</t>
+  </si>
+  <si>
+    <t>Obergrenzen</t>
+  </si>
+  <si>
+    <t>trifft gar nicht zu</t>
+  </si>
+  <si>
+    <t>trifft eher nicht zu</t>
+  </si>
+  <si>
+    <t>unentschieden</t>
+  </si>
+  <si>
+    <t>trifft eher zu</t>
+  </si>
+  <si>
+    <t>trifft voll zu</t>
+  </si>
+  <si>
+    <t>Spalte12</t>
+  </si>
+  <si>
+    <t>Klasse</t>
+  </si>
+  <si>
+    <t>und größer</t>
+  </si>
+  <si>
+    <t>Häufigkeit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -68,22 +124,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -109,14 +206,280 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Aussage 1: Häufigkeiten</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Häufigkeit</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$I$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>trifft gar nicht zu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trifft eher nicht zu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>unentschieden</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>trifft eher zu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trifft voll zu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$13:$B$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C967-40C1-A0A1-138983617CCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="641461919"/>
+        <c:axId val="641462335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="641461919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="641462335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="641462335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Häufigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="641461919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B2E8DA-F7AA-4262-93CA-57AF8625647C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Das  Laufen in der VR hat sich für Sie sehr natürlich angefühlt." dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sie haben Ihr Denken und Handeln in die VR projiziert." dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Die physische Umgebung war Ihnen sehr bewusst während Sie in VR waren." dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Das Bewusstsein über die physische Umgebung hat Sie in Ihrer Bewegungsfreiheit beeinflusst." dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Das  Laufen in der VR hat sich für Sie sehr natürlich angefühlt." dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CD26EA86-785C-4678-9415-2386B544E40A}" name="Spalte1" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sie haben Ihr Denken und Handeln in die VR projiziert." dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C4D9402D-D981-41B8-A058-00DD1E960ABB}" name="Spalte2" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Die physische Umgebung war Ihnen sehr bewusst während Sie in VR waren." dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7A4AFBCE-C883-41B5-845F-0285CA4945C9}" name="Spalte3" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Das Bewusstsein über die physische Umgebung hat Sie in Ihrer Bewegungsfreiheit beeinflusst." dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{FF215928-8A35-4378-ABE2-E7EE919D094D}" name="Obergrenzen" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{CB5BCD35-83BC-4527-9489-1AA250CB1F26}" name="Spalte12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -419,120 +782,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A38" sqref="A37:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
-        <v>5</v>
-      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>4</v>
       </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:A17">
+    <sortCondition ref="A13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Auswertung/Szenarien/Baseline2.xlsx
+++ b/Auswertung/Szenarien/Baseline2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\Desktop\Studium\Auswertung\Szenarien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\Studium\Auswertung\Szenarien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1565DECE-8569-46B4-B856-ACE7D695008C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBF0D5-47CE-442B-8E65-A411AC2452AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Das  Laufen in der VR hat sich für Sie sehr natürlich angefühlt.</t>
   </si>
@@ -426,6 +426,993 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Histogramm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Häufigkeit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$I$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>trifft gar nicht zu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trifft eher nicht zu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>unentschieden</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>trifft eher zu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trifft voll zu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$13:$D$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82C3-4847-A416-47A6DF4E27C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="75617791"/>
+        <c:axId val="75619039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75617791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75619039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75619039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Häufigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75617791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -464,6 +1451,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9377E54-39E7-476D-9E87-F1F8E35FD48A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -472,12 +1495,12 @@
   <autoFilter ref="A1:I7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Das  Laufen in der VR hat sich für Sie sehr natürlich angefühlt." dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CD26EA86-785C-4678-9415-2386B544E40A}" name="Spalte1" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sie haben Ihr Denken und Handeln in die VR projiziert." dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C4D9402D-D981-41B8-A058-00DD1E960ABB}" name="Spalte2" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Die physische Umgebung war Ihnen sehr bewusst während Sie in VR waren." dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{7A4AFBCE-C883-41B5-845F-0285CA4945C9}" name="Spalte3" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Das Bewusstsein über die physische Umgebung hat Sie in Ihrer Bewegungsfreiheit beeinflusst." dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CD26EA86-785C-4678-9415-2386B544E40A}" name="Spalte1" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sie haben Ihr Denken und Handeln in die VR projiziert." dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C4D9402D-D981-41B8-A058-00DD1E960ABB}" name="Spalte2" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Die physische Umgebung war Ihnen sehr bewusst während Sie in VR waren." dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7A4AFBCE-C883-41B5-845F-0285CA4945C9}" name="Spalte3" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Das Bewusstsein über die physische Umgebung hat Sie in Ihrer Bewegungsfreiheit beeinflusst." dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{FF215928-8A35-4378-ABE2-E7EE919D094D}" name="Obergrenzen" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{CB5BCD35-83BC-4527-9489-1AA250CB1F26}" name="Spalte12" dataDxfId="0"/>
   </tableColumns>
@@ -785,21 +1808,21 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A37:A38"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -828,7 +1851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -851,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -874,7 +1897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -897,7 +1920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -920,7 +1943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -943,7 +1966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -962,66 +1985,108 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="C12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>1</v>
       </c>
       <c r="B13" s="7">
         <v>0</v>
       </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>2</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
       </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>3</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
       </c>
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>4</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
       </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>5</v>
       </c>
       <c r="B17" s="7">
         <v>4</v>
       </c>
+      <c r="C17" s="6">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="8">
         <v>0</v>
       </c>
+      <c r="C18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:A17">
-    <sortCondition ref="A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:C17">
+    <sortCondition ref="C13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Auswertung/Szenarien/Baseline2.xlsx
+++ b/Auswertung/Szenarien/Baseline2.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Desktop\Studium\Auswertung\Szenarien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBF0D5-47CE-442B-8E65-A411AC2452AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDCB95A-57DC-4EC7-9E0A-F3A4747471CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">[1]Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$2:$G$7</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">[1]Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$C$2:$C$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">[1]Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$2:$G$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">[1]Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$E$2:$E$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">[1]Sheet1!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$2:$G$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">[1]Sheet1!$A$2:$A$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Das  Laufen in der VR hat sich für Sie sehr natürlich angefühlt.</t>
   </si>
@@ -870,7 +888,1504 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Histogramm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Häufigkeit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$I$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>trifft gar nicht zu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trifft eher nicht zu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>unentschieden</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>trifft eher zu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trifft voll zu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$F$13:$F$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0395-423F-A795-944F9D0293B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="916271839"/>
+        <c:axId val="916268511"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="916271839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916268511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="916268511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Häufigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916271839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Histogramm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Häufigkeit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$I$2:$I$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>trifft gar nicht zu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>trifft eher nicht zu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>unentschieden</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>trifft eher zu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>trifft voll zu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$H$13:$H$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F91E-41A5-BD92-0908A9318814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1113851039"/>
+        <c:axId val="1113846047"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1113851039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113846047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1113846047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Häufigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113851039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="96000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="boxWhisker" uniqueId="{657EFC0E-B822-4CE9-A9D1-086528F252FB}">
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:dataLabel idx="9">
+              <cx:numFmt formatCode="#.##0,00" sourceLinked="0"/>
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>4,33</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+              <cx:separator>, </cx:separator>
+            </cx:dataLabel>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="96000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="boxWhisker" uniqueId="{657EFC0E-B822-4CE9-A9D1-086528F252FB}">
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:dataLabel idx="9">
+              <cx:numFmt formatCode="#.##0,00" sourceLinked="0"/>
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>4,17</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+              <cx:separator>, </cx:separator>
+            </cx:dataLabel>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="96000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="boxWhisker" uniqueId="{657EFC0E-B822-4CE9-A9D1-086528F252FB}">
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:dataLabel idx="9">
+              <cx:numFmt formatCode="#.##0,00" sourceLinked="0"/>
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>4,17</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+              <cx:separator>, </cx:separator>
+            </cx:dataLabel>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="96000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
+        <cx:series layoutId="boxWhisker" uniqueId="{657EFC0E-B822-4CE9-A9D1-086528F252FB}">
+          <cx:dataLabels>
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:dataLabel idx="9">
+              <cx:numFmt formatCode="#.##0,00" sourceLinked="0"/>
+              <cx:txPr>
+                <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr" rtl="0">
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="de-DE" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:sysClr>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                    </a:rPr>
+                    <a:t>3,00</a:t>
+                  </a:r>
+                </a:p>
+              </cx:txPr>
+              <cx:visibility seriesName="0" categoryName="0" value="1"/>
+              <cx:separator>, </cx:separator>
+            </cx:dataLabel>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1409,6 +2924,3072 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1453,16 +6034,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1377950</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1487,7 +6068,435 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C28E4B9-0B2F-4124-A9EA-767888079C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32CB6F3-BBEF-42B0-8F29-175001D99031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Diagramm 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A2CF9D-340A-42EE-AF04-BD07CF6C68DC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5448300" y="5956300"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Diagramm 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EC3231-F4DE-43FA-9D84-F2842E73E557}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="387350" y="5975350"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Diagramm 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5743E04-D834-4A43-91E0-10D78036D4B2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10502900" y="5988050"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5054600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Diagramm 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CC11CB-B134-49DB-849C-72A219EB8416}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16649700" y="6038850"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1807,8 +6816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1817,9 +6826,9 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="49.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="82.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1999,6 +7008,18 @@
       <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="E12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
@@ -2013,6 +7034,18 @@
       <c r="D13" s="7">
         <v>1</v>
       </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
@@ -2027,6 +7060,18 @@
       <c r="D14" s="7">
         <v>0</v>
       </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
@@ -2041,6 +7086,18 @@
       <c r="D15" s="7">
         <v>0</v>
       </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
@@ -2055,8 +7112,20 @@
       <c r="D16" s="7">
         <v>0</v>
       </c>
+      <c r="E16" s="6">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>5</v>
       </c>
@@ -2069,8 +7138,20 @@
       <c r="D17" s="7">
         <v>5</v>
       </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -2083,10 +7164,22 @@
       <c r="D18" s="8">
         <v>0</v>
       </c>
+      <c r="E18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C13:C17">
-    <sortCondition ref="C13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G13:G17">
+    <sortCondition ref="G13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
